--- a/data/octanol_30pct_avoidance_210810.xlsx
+++ b/data/octanol_30pct_avoidance_210810.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC85141F-C51E-488D-8487-6D3DACC9A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221C0707-71B6-42D0-847A-29A4256C3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{287B09D0-8988-422D-BF0C-F151308AEB4E}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>TB</t>
   </si>
   <si>
-    <t>concentration</t>
-  </si>
-  <si>
     <t>30pct</t>
   </si>
   <si>
@@ -65,13 +62,16 @@
   <si>
     <t>date</t>
   </si>
+  <si>
+    <t>odor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>9.52</v>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>8.6199999999999992</v>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>7.24</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3.54</v>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4.21</v>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>3.86</v>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>5.84</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>5.34</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>4.24</v>
@@ -611,10 +611,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>5.13</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>5.76</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>4.1500000000000004</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>3.24</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>5.85</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>3.46</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>3.53</v>
@@ -733,13 +733,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>1.99</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
         <v>44418</v>
@@ -750,13 +750,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>2.58</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>44418</v>
@@ -767,13 +767,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>5.41</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>44418</v>
@@ -784,13 +784,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>4.6399999999999997</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>44418</v>
@@ -801,13 +801,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>2.63</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
         <v>44418</v>
@@ -818,13 +818,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>6.8</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1">
         <v>44418</v>
@@ -835,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>2.52</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1">
         <v>44418</v>
@@ -852,13 +852,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>3.68</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
         <v>44418</v>
@@ -869,13 +869,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1.78</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
         <v>44418</v>
@@ -886,13 +886,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>2.0299999999999998</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1">
         <v>44418</v>
@@ -903,13 +903,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>5.0599999999999996</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1">
         <v>44418</v>
@@ -920,13 +920,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>6.68</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
         <v>44418</v>
@@ -937,13 +937,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>8.19</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
         <v>44418</v>
@@ -954,13 +954,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>3.3</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <v>44418</v>
@@ -971,13 +971,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>4.76</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
         <v>44418</v>
@@ -988,13 +988,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>4.83</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
         <v>44418</v>
@@ -1005,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>3.77</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
         <v>44418</v>
@@ -1022,13 +1022,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>2.66</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1">
         <v>44418</v>
@@ -1039,13 +1039,13 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>3.79</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <v>44418</v>
@@ -1056,13 +1056,13 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>8.4700000000000006</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
         <v>44418</v>
@@ -1070,16 +1070,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>7.34</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>44418</v>
@@ -1087,16 +1087,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>1.99</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1">
         <v>44418</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3.17</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1">
         <v>44418</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>3.01</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
         <v>44418</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>3.79</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
         <v>44418</v>
@@ -1155,16 +1155,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>3.17</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>44418</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>3.34</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
         <v>44418</v>
@@ -1189,16 +1189,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>6.68</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="1">
         <v>44418</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>5.29</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
         <v>44418</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1.61</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
         <v>44418</v>
@@ -1240,16 +1240,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>4.42</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1">
         <v>44418</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>9.1199999999999992</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
         <v>44418</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1.21</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="1">
         <v>44418</v>
@@ -1291,16 +1291,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>2.35</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="1">
         <v>44418</v>
@@ -1308,16 +1308,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>3.49</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
         <v>44418</v>
@@ -1325,16 +1325,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1.73</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1">
         <v>44418</v>
@@ -1342,16 +1342,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>3.3</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1">
         <v>44418</v>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2.89</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1">
         <v>44418</v>
@@ -1376,16 +1376,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>4.8600000000000003</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1">
         <v>44418</v>
@@ -1393,16 +1393,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>2.46</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1">
         <v>44418</v>
